--- a/DataFiles/Demo_2_Experiments.xlsx
+++ b/DataFiles/Demo_2_Experiments.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqmstow1\Documents\REMS\DemoData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Apsim\REMS\REMS2020\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ED77C0-FD09-4458-AB44-CBD068C97BC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="660" windowWidth="15480" windowHeight="4755" tabRatio="669" activeTab="2"/>
+    <workbookView xWindow="-37005" yWindow="3135" windowWidth="28215" windowHeight="12420" tabRatio="669" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Factors" sheetId="20" r:id="rId1"/>
@@ -19,16 +20,17 @@
     <sheet name="Treatments" sheetId="19" r:id="rId5"/>
     <sheet name="Designs" sheetId="10" r:id="rId6"/>
     <sheet name="Plots" sheetId="22" r:id="rId7"/>
-    <sheet name="Irrigations" sheetId="6" r:id="rId8"/>
-    <sheet name="Fertilizations" sheetId="7" r:id="rId9"/>
-    <sheet name="Tillages" sheetId="18" r:id="rId10"/>
+    <sheet name="Sowings" sheetId="23" r:id="rId8"/>
+    <sheet name="Irrigations" sheetId="6" r:id="rId9"/>
+    <sheet name="Fertilizations" sheetId="7" r:id="rId10"/>
+    <sheet name="Tillages" sheetId="18" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" iterateCount="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t>Notes</t>
   </si>
@@ -191,12 +193,33 @@
   <si>
     <t>RepetitionNumber</t>
   </si>
+  <si>
+    <t>SowingId</t>
+  </si>
+  <si>
+    <t>RowSpace</t>
+  </si>
+  <si>
+    <t>FTN</t>
+  </si>
+  <si>
+    <t>10/10/1996</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>7/10/1996</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -225,8 +248,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,8 +267,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -293,16 +327,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,14 +409,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Design" xfId="4"/>
-    <cellStyle name="Normal_Factors" xfId="3"/>
-    <cellStyle name="Normal_Irrigation" xfId="5"/>
-    <cellStyle name="Normal_Sheet2" xfId="1"/>
-    <cellStyle name="Normal_Sites" xfId="2"/>
+    <cellStyle name="Normal_Design" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_ExperimentInfos" xfId="7" xr:uid="{23F9B8D0-1337-416F-812C-670F03C2CE96}"/>
+    <cellStyle name="Normal_Factors" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_Irrigation" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_Plots" xfId="6" xr:uid="{E53F5DAC-734B-4365-90A4-6CC1137A9658}"/>
+    <cellStyle name="Normal_Sheet2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal_Sites" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -628,7 +728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -691,7 +791,1738 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:I71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:XFD71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="20.7109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20</v>
+      </c>
+      <c r="F2" s="9">
+        <v>35335</v>
+      </c>
+      <c r="G2" s="2">
+        <v>55</v>
+      </c>
+      <c r="H2" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>20</v>
+      </c>
+      <c r="F3" s="9">
+        <v>35347</v>
+      </c>
+      <c r="G3" s="2">
+        <v>70</v>
+      </c>
+      <c r="H3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" s="9">
+        <v>35354</v>
+      </c>
+      <c r="G4" s="2">
+        <v>217</v>
+      </c>
+      <c r="H4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2">
+        <v>20</v>
+      </c>
+      <c r="F5" s="9">
+        <v>35380</v>
+      </c>
+      <c r="G5" s="2">
+        <v>130</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20</v>
+      </c>
+      <c r="F6" s="9">
+        <v>35410</v>
+      </c>
+      <c r="G6" s="2">
+        <v>130</v>
+      </c>
+      <c r="H6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20</v>
+      </c>
+      <c r="F7" s="9">
+        <v>35335</v>
+      </c>
+      <c r="G7" s="2">
+        <v>55</v>
+      </c>
+      <c r="H7" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>20</v>
+      </c>
+      <c r="F8" s="9">
+        <v>35347</v>
+      </c>
+      <c r="G8" s="2">
+        <v>70</v>
+      </c>
+      <c r="H8" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>20</v>
+      </c>
+      <c r="F9" s="9">
+        <v>35354</v>
+      </c>
+      <c r="G9" s="2">
+        <v>217</v>
+      </c>
+      <c r="H9" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2">
+        <v>20</v>
+      </c>
+      <c r="F10" s="9">
+        <v>35380</v>
+      </c>
+      <c r="G10" s="2">
+        <v>130</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2">
+        <v>20</v>
+      </c>
+      <c r="F11" s="9">
+        <v>35410</v>
+      </c>
+      <c r="G11" s="2">
+        <v>130</v>
+      </c>
+      <c r="H11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>20</v>
+      </c>
+      <c r="F12" s="9">
+        <v>35335</v>
+      </c>
+      <c r="G12" s="2">
+        <v>55</v>
+      </c>
+      <c r="H12" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>20</v>
+      </c>
+      <c r="F13" s="9">
+        <v>35347</v>
+      </c>
+      <c r="G13" s="2">
+        <v>70</v>
+      </c>
+      <c r="H13" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>20</v>
+      </c>
+      <c r="F14" s="9">
+        <v>35354</v>
+      </c>
+      <c r="G14" s="2">
+        <v>217</v>
+      </c>
+      <c r="H14" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2">
+        <v>20</v>
+      </c>
+      <c r="F15" s="9">
+        <v>35380</v>
+      </c>
+      <c r="G15" s="2">
+        <v>130</v>
+      </c>
+      <c r="H15" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2">
+        <v>20</v>
+      </c>
+      <c r="F16" s="9">
+        <v>35410</v>
+      </c>
+      <c r="G16" s="2">
+        <v>130</v>
+      </c>
+      <c r="H16" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>20</v>
+      </c>
+      <c r="F17" s="9">
+        <v>35335</v>
+      </c>
+      <c r="G17" s="2">
+        <v>55</v>
+      </c>
+      <c r="H17" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>20</v>
+      </c>
+      <c r="F18" s="9">
+        <v>35347</v>
+      </c>
+      <c r="G18" s="2">
+        <v>70</v>
+      </c>
+      <c r="H18" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>20</v>
+      </c>
+      <c r="F19" s="9">
+        <v>35354</v>
+      </c>
+      <c r="G19" s="2">
+        <v>217</v>
+      </c>
+      <c r="H19" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>26</v>
+      </c>
+      <c r="E20" s="2">
+        <v>20</v>
+      </c>
+      <c r="F20" s="9">
+        <v>35380</v>
+      </c>
+      <c r="G20" s="2">
+        <v>130</v>
+      </c>
+      <c r="H20" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2">
+        <v>26</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20</v>
+      </c>
+      <c r="F21" s="9">
+        <v>35410</v>
+      </c>
+      <c r="G21" s="2">
+        <v>130</v>
+      </c>
+      <c r="H21" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20</v>
+      </c>
+      <c r="F22" s="9">
+        <v>35335</v>
+      </c>
+      <c r="G22" s="2">
+        <v>55</v>
+      </c>
+      <c r="H22" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>20</v>
+      </c>
+      <c r="F23" s="9">
+        <v>35347</v>
+      </c>
+      <c r="G23" s="2">
+        <v>70</v>
+      </c>
+      <c r="H23" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>20</v>
+      </c>
+      <c r="F24" s="9">
+        <v>35354</v>
+      </c>
+      <c r="G24" s="2">
+        <v>217</v>
+      </c>
+      <c r="H24" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>20</v>
+      </c>
+      <c r="F25" s="9">
+        <v>35335</v>
+      </c>
+      <c r="G25" s="2">
+        <v>55</v>
+      </c>
+      <c r="H25" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>20</v>
+      </c>
+      <c r="F26" s="9">
+        <v>35347</v>
+      </c>
+      <c r="G26" s="2">
+        <v>70</v>
+      </c>
+      <c r="H26" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>20</v>
+      </c>
+      <c r="F27" s="9">
+        <v>35354</v>
+      </c>
+      <c r="G27" s="2">
+        <v>217</v>
+      </c>
+      <c r="H27" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>20</v>
+      </c>
+      <c r="F28" s="9">
+        <v>35335</v>
+      </c>
+      <c r="G28" s="2">
+        <v>55</v>
+      </c>
+      <c r="H28" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>20</v>
+      </c>
+      <c r="F29" s="9">
+        <v>35347</v>
+      </c>
+      <c r="G29" s="2">
+        <v>70</v>
+      </c>
+      <c r="H29" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>20</v>
+      </c>
+      <c r="F30" s="9">
+        <v>35354</v>
+      </c>
+      <c r="G30" s="2">
+        <v>217</v>
+      </c>
+      <c r="H30" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>20</v>
+      </c>
+      <c r="F31" s="9">
+        <v>35335</v>
+      </c>
+      <c r="G31" s="2">
+        <v>55</v>
+      </c>
+      <c r="H31" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>20</v>
+      </c>
+      <c r="F32" s="9">
+        <v>35347</v>
+      </c>
+      <c r="G32" s="2">
+        <v>70</v>
+      </c>
+      <c r="H32" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>20</v>
+      </c>
+      <c r="F33" s="9">
+        <v>35354</v>
+      </c>
+      <c r="G33" s="2">
+        <v>217</v>
+      </c>
+      <c r="H33" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>9</v>
+      </c>
+      <c r="C34" s="2">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>20</v>
+      </c>
+      <c r="F34" s="9">
+        <v>35335</v>
+      </c>
+      <c r="G34" s="2">
+        <v>55</v>
+      </c>
+      <c r="H34" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>20</v>
+      </c>
+      <c r="F35" s="9">
+        <v>35335</v>
+      </c>
+      <c r="G35" s="2">
+        <v>55</v>
+      </c>
+      <c r="H35" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>11</v>
+      </c>
+      <c r="C36" s="2">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>20</v>
+      </c>
+      <c r="F36" s="9">
+        <v>35335</v>
+      </c>
+      <c r="G36" s="2">
+        <v>55</v>
+      </c>
+      <c r="H36" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>20</v>
+      </c>
+      <c r="F37" s="9">
+        <v>35335</v>
+      </c>
+      <c r="G37" s="2">
+        <v>55</v>
+      </c>
+      <c r="H37" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>13</v>
+      </c>
+      <c r="C38" s="2">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>20</v>
+      </c>
+      <c r="F38" s="9">
+        <v>35333</v>
+      </c>
+      <c r="G38" s="2">
+        <v>110</v>
+      </c>
+      <c r="H38" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>13</v>
+      </c>
+      <c r="C39" s="2">
+        <v>7</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>20</v>
+      </c>
+      <c r="F39" s="9">
+        <v>35355</v>
+      </c>
+      <c r="G39" s="2">
+        <v>217</v>
+      </c>
+      <c r="H39" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>13</v>
+      </c>
+      <c r="C40" s="2">
+        <v>7</v>
+      </c>
+      <c r="D40" s="2">
+        <v>26</v>
+      </c>
+      <c r="E40" s="2">
+        <v>20</v>
+      </c>
+      <c r="F40" s="9">
+        <v>35375</v>
+      </c>
+      <c r="G40" s="2">
+        <v>130</v>
+      </c>
+      <c r="H40" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>13</v>
+      </c>
+      <c r="C41" s="2">
+        <v>7</v>
+      </c>
+      <c r="D41" s="2">
+        <v>26</v>
+      </c>
+      <c r="E41" s="2">
+        <v>20</v>
+      </c>
+      <c r="F41" s="9">
+        <v>35409</v>
+      </c>
+      <c r="G41" s="2">
+        <v>130</v>
+      </c>
+      <c r="H41" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>14</v>
+      </c>
+      <c r="C42" s="2">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>20</v>
+      </c>
+      <c r="F42" s="9">
+        <v>35333</v>
+      </c>
+      <c r="G42" s="2">
+        <v>110</v>
+      </c>
+      <c r="H42" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <v>14</v>
+      </c>
+      <c r="C43" s="2">
+        <v>7</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>20</v>
+      </c>
+      <c r="F43" s="9">
+        <v>35355</v>
+      </c>
+      <c r="G43" s="2">
+        <v>217</v>
+      </c>
+      <c r="H43" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>14</v>
+      </c>
+      <c r="C44" s="2">
+        <v>7</v>
+      </c>
+      <c r="D44" s="2">
+        <v>26</v>
+      </c>
+      <c r="E44" s="2">
+        <v>20</v>
+      </c>
+      <c r="F44" s="9">
+        <v>35375</v>
+      </c>
+      <c r="G44" s="2">
+        <v>130</v>
+      </c>
+      <c r="H44" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>14</v>
+      </c>
+      <c r="C45" s="2">
+        <v>7</v>
+      </c>
+      <c r="D45" s="2">
+        <v>26</v>
+      </c>
+      <c r="E45" s="2">
+        <v>20</v>
+      </c>
+      <c r="F45" s="9">
+        <v>35409</v>
+      </c>
+      <c r="G45" s="2">
+        <v>130</v>
+      </c>
+      <c r="H45" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <v>15</v>
+      </c>
+      <c r="C46" s="2">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
+        <v>20</v>
+      </c>
+      <c r="F46" s="9">
+        <v>35333</v>
+      </c>
+      <c r="G46" s="2">
+        <v>110</v>
+      </c>
+      <c r="H46" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <v>15</v>
+      </c>
+      <c r="C47" s="2">
+        <v>7</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>20</v>
+      </c>
+      <c r="F47" s="9">
+        <v>35355</v>
+      </c>
+      <c r="G47" s="2">
+        <v>217</v>
+      </c>
+      <c r="H47" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <v>15</v>
+      </c>
+      <c r="C48" s="2">
+        <v>7</v>
+      </c>
+      <c r="D48" s="2">
+        <v>26</v>
+      </c>
+      <c r="E48" s="2">
+        <v>20</v>
+      </c>
+      <c r="F48" s="9">
+        <v>35375</v>
+      </c>
+      <c r="G48" s="2">
+        <v>130</v>
+      </c>
+      <c r="H48" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
+        <v>15</v>
+      </c>
+      <c r="C49" s="2">
+        <v>7</v>
+      </c>
+      <c r="D49" s="2">
+        <v>26</v>
+      </c>
+      <c r="E49" s="2">
+        <v>20</v>
+      </c>
+      <c r="F49" s="9">
+        <v>35409</v>
+      </c>
+      <c r="G49" s="2">
+        <v>130</v>
+      </c>
+      <c r="H49" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
+        <v>16</v>
+      </c>
+      <c r="C50" s="2">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2">
+        <v>20</v>
+      </c>
+      <c r="F50" s="9">
+        <v>35333</v>
+      </c>
+      <c r="G50" s="2">
+        <v>110</v>
+      </c>
+      <c r="H50" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
+        <v>16</v>
+      </c>
+      <c r="C51" s="2">
+        <v>7</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2">
+        <v>20</v>
+      </c>
+      <c r="F51" s="9">
+        <v>35355</v>
+      </c>
+      <c r="G51" s="2">
+        <v>217</v>
+      </c>
+      <c r="H51" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2">
+        <v>16</v>
+      </c>
+      <c r="C52" s="2">
+        <v>7</v>
+      </c>
+      <c r="D52" s="2">
+        <v>26</v>
+      </c>
+      <c r="E52" s="2">
+        <v>20</v>
+      </c>
+      <c r="F52" s="9">
+        <v>35375</v>
+      </c>
+      <c r="G52" s="2">
+        <v>130</v>
+      </c>
+      <c r="H52" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2">
+        <v>16</v>
+      </c>
+      <c r="C53" s="2">
+        <v>7</v>
+      </c>
+      <c r="D53" s="2">
+        <v>26</v>
+      </c>
+      <c r="E53" s="2">
+        <v>20</v>
+      </c>
+      <c r="F53" s="9">
+        <v>35409</v>
+      </c>
+      <c r="G53" s="2">
+        <v>130</v>
+      </c>
+      <c r="H53" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2">
+        <v>17</v>
+      </c>
+      <c r="C54" s="2">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2">
+        <v>20</v>
+      </c>
+      <c r="F54" s="9">
+        <v>35333</v>
+      </c>
+      <c r="G54" s="2">
+        <v>110</v>
+      </c>
+      <c r="H54" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2">
+        <v>17</v>
+      </c>
+      <c r="C55" s="2">
+        <v>7</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
+        <v>20</v>
+      </c>
+      <c r="F55" s="9">
+        <v>35355</v>
+      </c>
+      <c r="G55" s="2">
+        <v>217</v>
+      </c>
+      <c r="H55" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2">
+        <v>18</v>
+      </c>
+      <c r="C56" s="2">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2">
+        <v>20</v>
+      </c>
+      <c r="F56" s="9">
+        <v>35333</v>
+      </c>
+      <c r="G56" s="2">
+        <v>110</v>
+      </c>
+      <c r="H56" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2">
+        <v>18</v>
+      </c>
+      <c r="C57" s="2">
+        <v>7</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2">
+        <v>20</v>
+      </c>
+      <c r="F57" s="9">
+        <v>35355</v>
+      </c>
+      <c r="G57" s="2">
+        <v>217</v>
+      </c>
+      <c r="H57" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2">
+        <v>19</v>
+      </c>
+      <c r="C58" s="2">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2">
+        <v>20</v>
+      </c>
+      <c r="F58" s="9">
+        <v>35333</v>
+      </c>
+      <c r="G58" s="2">
+        <v>110</v>
+      </c>
+      <c r="H58" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2">
+        <v>19</v>
+      </c>
+      <c r="C59" s="2">
+        <v>7</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2">
+        <v>20</v>
+      </c>
+      <c r="F59" s="9">
+        <v>35355</v>
+      </c>
+      <c r="G59" s="2">
+        <v>217</v>
+      </c>
+      <c r="H59" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2">
+        <v>20</v>
+      </c>
+      <c r="C60" s="2">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2">
+        <v>20</v>
+      </c>
+      <c r="F60" s="9">
+        <v>35333</v>
+      </c>
+      <c r="G60" s="2">
+        <v>110</v>
+      </c>
+      <c r="H60" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2">
+        <v>20</v>
+      </c>
+      <c r="C61" s="2">
+        <v>7</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2">
+        <v>20</v>
+      </c>
+      <c r="F61" s="9">
+        <v>35355</v>
+      </c>
+      <c r="G61" s="2">
+        <v>217</v>
+      </c>
+      <c r="H61" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2">
+        <v>21</v>
+      </c>
+      <c r="C62" s="2">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2">
+        <v>20</v>
+      </c>
+      <c r="F62" s="9">
+        <v>35333</v>
+      </c>
+      <c r="G62" s="2">
+        <v>110</v>
+      </c>
+      <c r="H62" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2">
+        <v>22</v>
+      </c>
+      <c r="C63" s="2">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2">
+        <v>20</v>
+      </c>
+      <c r="F63" s="9">
+        <v>35333</v>
+      </c>
+      <c r="G63" s="2">
+        <v>110</v>
+      </c>
+      <c r="H63" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2">
+        <v>23</v>
+      </c>
+      <c r="C64" s="2">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2">
+        <v>20</v>
+      </c>
+      <c r="F64" s="9">
+        <v>35333</v>
+      </c>
+      <c r="G64" s="2">
+        <v>110</v>
+      </c>
+      <c r="H64" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2">
+        <v>24</v>
+      </c>
+      <c r="C65" s="2">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2">
+        <v>20</v>
+      </c>
+      <c r="F65" s="9">
+        <v>35333</v>
+      </c>
+      <c r="G65" s="2">
+        <v>110</v>
+      </c>
+      <c r="H65" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F70" s="9"/>
+    </row>
+    <row r="71" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F71" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -774,7 +2605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -952,10 +2783,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1087,11 +2918,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD11"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1180,12 +3011,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD49"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1401,11 +3230,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2387,11 +4216,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2399,93 +4228,1029 @@
     <col min="1" max="16384" width="20.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="17" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
+        <v>2</v>
+      </c>
+      <c r="D3" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16">
+        <v>3</v>
+      </c>
+      <c r="D4" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16">
+        <v>2</v>
+      </c>
+      <c r="D6" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18">
+        <v>2</v>
+      </c>
+      <c r="C7" s="16">
+        <v>3</v>
+      </c>
+      <c r="D7" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18">
+        <v>3</v>
+      </c>
+      <c r="C8" s="16">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18">
+        <v>3</v>
+      </c>
+      <c r="C9" s="16">
+        <v>2</v>
+      </c>
+      <c r="D9" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16">
+        <v>3</v>
+      </c>
+      <c r="D10" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
+      <c r="D11" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18">
+        <v>4</v>
+      </c>
+      <c r="C12" s="16">
+        <v>2</v>
+      </c>
+      <c r="D12" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18">
+        <v>4</v>
+      </c>
+      <c r="C13" s="16">
+        <v>3</v>
+      </c>
+      <c r="D13" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="B14" s="18">
+        <v>5</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1</v>
+      </c>
+      <c r="D14" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="B15" s="18">
+        <v>5</v>
+      </c>
+      <c r="C15" s="16">
+        <v>2</v>
+      </c>
+      <c r="D15" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="B16" s="18">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18">
+        <v>6</v>
+      </c>
+      <c r="C17" s="16">
+        <v>1</v>
+      </c>
+      <c r="D17" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="18">
+        <v>6</v>
+      </c>
+      <c r="C18" s="16">
+        <v>2</v>
+      </c>
+      <c r="D18" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="18">
+        <v>6</v>
+      </c>
+      <c r="C19" s="16">
+        <v>3</v>
+      </c>
+      <c r="D19" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="18">
+        <v>7</v>
+      </c>
+      <c r="C20" s="16">
+        <v>1</v>
+      </c>
+      <c r="D20" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="18">
+        <v>7</v>
+      </c>
+      <c r="C21" s="16">
+        <v>2</v>
+      </c>
+      <c r="D21" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="18">
+        <v>7</v>
+      </c>
+      <c r="C22" s="16">
+        <v>3</v>
+      </c>
+      <c r="D22" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="18">
+        <v>8</v>
+      </c>
+      <c r="C23" s="16">
+        <v>1</v>
+      </c>
+      <c r="D23" s="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="18">
+        <v>8</v>
+      </c>
+      <c r="C24" s="16">
+        <v>2</v>
+      </c>
+      <c r="D24" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>24</v>
+      </c>
+      <c r="B25" s="18">
+        <v>8</v>
+      </c>
+      <c r="C25" s="16">
+        <v>3</v>
+      </c>
+      <c r="D25" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
         <v>25</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="B26" s="18">
+        <v>9</v>
+      </c>
+      <c r="C26" s="16">
+        <v>1</v>
+      </c>
+      <c r="D26" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
         <v>26</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="B27" s="18">
+        <v>9</v>
+      </c>
+      <c r="C27" s="16">
+        <v>2</v>
+      </c>
+      <c r="D27" s="18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
+      <c r="B28" s="18">
+        <v>9</v>
+      </c>
+      <c r="C28" s="16">
+        <v>3</v>
+      </c>
+      <c r="D28" s="18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>28</v>
+      </c>
+      <c r="B29" s="18">
+        <v>10</v>
+      </c>
+      <c r="C29" s="16">
+        <v>1</v>
+      </c>
+      <c r="D29" s="18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>29</v>
+      </c>
+      <c r="B30" s="18">
+        <v>10</v>
+      </c>
+      <c r="C30" s="16">
+        <v>2</v>
+      </c>
+      <c r="D30" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>30</v>
+      </c>
+      <c r="B31" s="18">
+        <v>10</v>
+      </c>
+      <c r="C31" s="16">
+        <v>3</v>
+      </c>
+      <c r="D31" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>31</v>
+      </c>
+      <c r="B32" s="18">
+        <v>11</v>
+      </c>
+      <c r="C32" s="16">
+        <v>1</v>
+      </c>
+      <c r="D32" s="18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>32</v>
+      </c>
+      <c r="B33" s="18">
+        <v>11</v>
+      </c>
+      <c r="C33" s="16">
+        <v>2</v>
+      </c>
+      <c r="D33" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>33</v>
+      </c>
+      <c r="B34" s="18">
+        <v>11</v>
+      </c>
+      <c r="C34" s="16">
+        <v>3</v>
+      </c>
+      <c r="D34" s="18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>34</v>
+      </c>
+      <c r="B35" s="18">
+        <v>12</v>
+      </c>
+      <c r="C35" s="16">
+        <v>1</v>
+      </c>
+      <c r="D35" s="18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>35</v>
+      </c>
+      <c r="B36" s="18">
+        <v>12</v>
+      </c>
+      <c r="C36" s="16">
+        <v>2</v>
+      </c>
+      <c r="D36" s="18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <v>36</v>
+      </c>
+      <c r="B37" s="18">
+        <v>12</v>
+      </c>
+      <c r="C37" s="16">
+        <v>3</v>
+      </c>
+      <c r="D37" s="18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>37</v>
+      </c>
+      <c r="B38" s="18">
+        <v>13</v>
+      </c>
+      <c r="C38" s="16">
+        <v>1</v>
+      </c>
+      <c r="D38" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <v>38</v>
+      </c>
+      <c r="B39" s="18">
+        <v>13</v>
+      </c>
+      <c r="C39" s="16">
+        <v>2</v>
+      </c>
+      <c r="D39" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>39</v>
+      </c>
+      <c r="B40" s="18">
+        <v>13</v>
+      </c>
+      <c r="C40" s="16">
+        <v>3</v>
+      </c>
+      <c r="D40" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
+        <v>40</v>
+      </c>
+      <c r="B41" s="18">
+        <v>14</v>
+      </c>
+      <c r="C41" s="16">
+        <v>1</v>
+      </c>
+      <c r="D41" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <v>41</v>
+      </c>
+      <c r="B42" s="18">
+        <v>14</v>
+      </c>
+      <c r="C42" s="16">
+        <v>2</v>
+      </c>
+      <c r="D42" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
+        <v>42</v>
+      </c>
+      <c r="B43" s="18">
+        <v>14</v>
+      </c>
+      <c r="C43" s="16">
+        <v>3</v>
+      </c>
+      <c r="D43" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
+        <v>43</v>
+      </c>
+      <c r="B44" s="18">
+        <v>15</v>
+      </c>
+      <c r="C44" s="16">
+        <v>1</v>
+      </c>
+      <c r="D44" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
+        <v>44</v>
+      </c>
+      <c r="B45" s="18">
+        <v>15</v>
+      </c>
+      <c r="C45" s="16">
+        <v>2</v>
+      </c>
+      <c r="D45" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
+        <v>45</v>
+      </c>
+      <c r="B46" s="18">
+        <v>15</v>
+      </c>
+      <c r="C46" s="16">
+        <v>3</v>
+      </c>
+      <c r="D46" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
+        <v>46</v>
+      </c>
+      <c r="B47" s="18">
+        <v>16</v>
+      </c>
+      <c r="C47" s="16">
+        <v>1</v>
+      </c>
+      <c r="D47" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
+        <v>47</v>
+      </c>
+      <c r="B48" s="18">
+        <v>16</v>
+      </c>
+      <c r="C48" s="16">
+        <v>2</v>
+      </c>
+      <c r="D48" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="15">
+        <v>48</v>
+      </c>
+      <c r="B49" s="18">
+        <v>16</v>
+      </c>
+      <c r="C49" s="16">
+        <v>3</v>
+      </c>
+      <c r="D49" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="15">
+        <v>49</v>
+      </c>
+      <c r="B50" s="18">
+        <v>17</v>
+      </c>
+      <c r="C50" s="16">
+        <v>1</v>
+      </c>
+      <c r="D50" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="15">
+        <v>50</v>
+      </c>
+      <c r="B51" s="18">
+        <v>17</v>
+      </c>
+      <c r="C51" s="16">
+        <v>2</v>
+      </c>
+      <c r="D51" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="15">
+        <v>51</v>
+      </c>
+      <c r="B52" s="18">
+        <v>17</v>
+      </c>
+      <c r="C52" s="16">
+        <v>3</v>
+      </c>
+      <c r="D52" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="15">
+        <v>52</v>
+      </c>
+      <c r="B53" s="18">
+        <v>18</v>
+      </c>
+      <c r="C53" s="16">
+        <v>1</v>
+      </c>
+      <c r="D53" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="15">
+        <v>53</v>
+      </c>
+      <c r="B54" s="18">
+        <v>18</v>
+      </c>
+      <c r="C54" s="16">
+        <v>2</v>
+      </c>
+      <c r="D54" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="15">
+        <v>54</v>
+      </c>
+      <c r="B55" s="18">
+        <v>18</v>
+      </c>
+      <c r="C55" s="16">
+        <v>3</v>
+      </c>
+      <c r="D55" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="15">
+        <v>55</v>
+      </c>
+      <c r="B56" s="18">
+        <v>19</v>
+      </c>
+      <c r="C56" s="16">
+        <v>1</v>
+      </c>
+      <c r="D56" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="15">
+        <v>56</v>
+      </c>
+      <c r="B57" s="18">
+        <v>19</v>
+      </c>
+      <c r="C57" s="16">
+        <v>2</v>
+      </c>
+      <c r="D57" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="15">
+        <v>57</v>
+      </c>
+      <c r="B58" s="18">
+        <v>19</v>
+      </c>
+      <c r="C58" s="16">
+        <v>3</v>
+      </c>
+      <c r="D58" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="15">
+        <v>58</v>
+      </c>
+      <c r="B59" s="18">
+        <v>20</v>
+      </c>
+      <c r="C59" s="16">
+        <v>1</v>
+      </c>
+      <c r="D59" s="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="15">
+        <v>59</v>
+      </c>
+      <c r="B60" s="18">
+        <v>20</v>
+      </c>
+      <c r="C60" s="16">
+        <v>2</v>
+      </c>
+      <c r="D60" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="15">
+        <v>60</v>
+      </c>
+      <c r="B61" s="18">
+        <v>20</v>
+      </c>
+      <c r="C61" s="16">
+        <v>3</v>
+      </c>
+      <c r="D61" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="15">
+        <v>61</v>
+      </c>
+      <c r="B62" s="18">
+        <v>21</v>
+      </c>
+      <c r="C62" s="16">
+        <v>1</v>
+      </c>
+      <c r="D62" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="15">
+        <v>62</v>
+      </c>
+      <c r="B63" s="18">
+        <v>21</v>
+      </c>
+      <c r="C63" s="16">
+        <v>2</v>
+      </c>
+      <c r="D63" s="18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="15">
+        <v>63</v>
+      </c>
+      <c r="B64" s="18">
+        <v>21</v>
+      </c>
+      <c r="C64" s="16">
+        <v>3</v>
+      </c>
+      <c r="D64" s="18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="15">
+        <v>64</v>
+      </c>
+      <c r="B65" s="18">
+        <v>22</v>
+      </c>
+      <c r="C65" s="16">
+        <v>1</v>
+      </c>
+      <c r="D65" s="18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="15">
+        <v>65</v>
+      </c>
+      <c r="B66" s="18">
+        <v>22</v>
+      </c>
+      <c r="C66" s="16">
+        <v>2</v>
+      </c>
+      <c r="D66" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="15">
+        <v>66</v>
+      </c>
+      <c r="B67" s="18">
+        <v>22</v>
+      </c>
+      <c r="C67" s="16">
+        <v>3</v>
+      </c>
+      <c r="D67" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="15">
+        <v>67</v>
+      </c>
+      <c r="B68" s="18">
+        <v>23</v>
+      </c>
+      <c r="C68" s="16">
+        <v>1</v>
+      </c>
+      <c r="D68" s="18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="15">
+        <v>68</v>
+      </c>
+      <c r="B69" s="18">
+        <v>23</v>
+      </c>
+      <c r="C69" s="16">
+        <v>2</v>
+      </c>
+      <c r="D69" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="15">
+        <v>69</v>
+      </c>
+      <c r="B70" s="18">
+        <v>23</v>
+      </c>
+      <c r="C70" s="16">
+        <v>3</v>
+      </c>
+      <c r="D70" s="18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="15">
+        <v>70</v>
+      </c>
+      <c r="B71" s="18">
+        <v>24</v>
+      </c>
+      <c r="C71" s="16">
+        <v>1</v>
+      </c>
+      <c r="D71" s="18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="15">
+        <v>71</v>
+      </c>
+      <c r="B72" s="18">
+        <v>24</v>
+      </c>
+      <c r="C72" s="16">
+        <v>2</v>
+      </c>
+      <c r="D72" s="18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="15">
+        <v>72</v>
+      </c>
+      <c r="B73" s="18">
+        <v>24</v>
+      </c>
+      <c r="C73" s="16">
+        <v>3</v>
+      </c>
+      <c r="D73" s="18">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2494,7 +5259,110 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B147167-1129-4539-A51B-327E0C86BF99}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23">
+        <v>202</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23">
+        <v>203</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="27">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3252,1735 +6120,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:XFD71"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="20.7109375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>20</v>
-      </c>
-      <c r="F2" s="9">
-        <v>35335</v>
-      </c>
-      <c r="G2" s="2">
-        <v>55</v>
-      </c>
-      <c r="H2" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>20</v>
-      </c>
-      <c r="F3" s="9">
-        <v>35347</v>
-      </c>
-      <c r="G3" s="2">
-        <v>70</v>
-      </c>
-      <c r="H3" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>20</v>
-      </c>
-      <c r="F4" s="9">
-        <v>35354</v>
-      </c>
-      <c r="G4" s="2">
-        <v>217</v>
-      </c>
-      <c r="H4" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2">
-        <v>20</v>
-      </c>
-      <c r="F5" s="9">
-        <v>35380</v>
-      </c>
-      <c r="G5" s="2">
-        <v>130</v>
-      </c>
-      <c r="H5" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2">
-        <v>20</v>
-      </c>
-      <c r="F6" s="9">
-        <v>35410</v>
-      </c>
-      <c r="G6" s="2">
-        <v>130</v>
-      </c>
-      <c r="H6" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>20</v>
-      </c>
-      <c r="F7" s="9">
-        <v>35335</v>
-      </c>
-      <c r="G7" s="2">
-        <v>55</v>
-      </c>
-      <c r="H7" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>20</v>
-      </c>
-      <c r="F8" s="9">
-        <v>35347</v>
-      </c>
-      <c r="G8" s="2">
-        <v>70</v>
-      </c>
-      <c r="H8" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>20</v>
-      </c>
-      <c r="F9" s="9">
-        <v>35354</v>
-      </c>
-      <c r="G9" s="2">
-        <v>217</v>
-      </c>
-      <c r="H9" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2">
-        <v>20</v>
-      </c>
-      <c r="F10" s="9">
-        <v>35380</v>
-      </c>
-      <c r="G10" s="2">
-        <v>130</v>
-      </c>
-      <c r="H10" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2">
-        <v>26</v>
-      </c>
-      <c r="E11" s="2">
-        <v>20</v>
-      </c>
-      <c r="F11" s="9">
-        <v>35410</v>
-      </c>
-      <c r="G11" s="2">
-        <v>130</v>
-      </c>
-      <c r="H11" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>20</v>
-      </c>
-      <c r="F12" s="9">
-        <v>35335</v>
-      </c>
-      <c r="G12" s="2">
-        <v>55</v>
-      </c>
-      <c r="H12" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>20</v>
-      </c>
-      <c r="F13" s="9">
-        <v>35347</v>
-      </c>
-      <c r="G13" s="2">
-        <v>70</v>
-      </c>
-      <c r="H13" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>20</v>
-      </c>
-      <c r="F14" s="9">
-        <v>35354</v>
-      </c>
-      <c r="G14" s="2">
-        <v>217</v>
-      </c>
-      <c r="H14" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2">
-        <v>26</v>
-      </c>
-      <c r="E15" s="2">
-        <v>20</v>
-      </c>
-      <c r="F15" s="9">
-        <v>35380</v>
-      </c>
-      <c r="G15" s="2">
-        <v>130</v>
-      </c>
-      <c r="H15" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2">
-        <v>26</v>
-      </c>
-      <c r="E16" s="2">
-        <v>20</v>
-      </c>
-      <c r="F16" s="9">
-        <v>35410</v>
-      </c>
-      <c r="G16" s="2">
-        <v>130</v>
-      </c>
-      <c r="H16" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>20</v>
-      </c>
-      <c r="F17" s="9">
-        <v>35335</v>
-      </c>
-      <c r="G17" s="2">
-        <v>55</v>
-      </c>
-      <c r="H17" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>20</v>
-      </c>
-      <c r="F18" s="9">
-        <v>35347</v>
-      </c>
-      <c r="G18" s="2">
-        <v>70</v>
-      </c>
-      <c r="H18" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>20</v>
-      </c>
-      <c r="F19" s="9">
-        <v>35354</v>
-      </c>
-      <c r="G19" s="2">
-        <v>217</v>
-      </c>
-      <c r="H19" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2">
-        <v>26</v>
-      </c>
-      <c r="E20" s="2">
-        <v>20</v>
-      </c>
-      <c r="F20" s="9">
-        <v>35380</v>
-      </c>
-      <c r="G20" s="2">
-        <v>130</v>
-      </c>
-      <c r="H20" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2">
-        <v>7</v>
-      </c>
-      <c r="D21" s="2">
-        <v>26</v>
-      </c>
-      <c r="E21" s="2">
-        <v>20</v>
-      </c>
-      <c r="F21" s="9">
-        <v>35410</v>
-      </c>
-      <c r="G21" s="2">
-        <v>130</v>
-      </c>
-      <c r="H21" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>20</v>
-      </c>
-      <c r="F22" s="9">
-        <v>35335</v>
-      </c>
-      <c r="G22" s="2">
-        <v>55</v>
-      </c>
-      <c r="H22" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2">
-        <v>5</v>
-      </c>
-      <c r="C23" s="2">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <v>20</v>
-      </c>
-      <c r="F23" s="9">
-        <v>35347</v>
-      </c>
-      <c r="G23" s="2">
-        <v>70</v>
-      </c>
-      <c r="H23" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
-        <v>20</v>
-      </c>
-      <c r="F24" s="9">
-        <v>35354</v>
-      </c>
-      <c r="G24" s="2">
-        <v>217</v>
-      </c>
-      <c r="H24" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2">
-        <v>6</v>
-      </c>
-      <c r="C25" s="2">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <v>20</v>
-      </c>
-      <c r="F25" s="9">
-        <v>35335</v>
-      </c>
-      <c r="G25" s="2">
-        <v>55</v>
-      </c>
-      <c r="H25" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
-        <v>20</v>
-      </c>
-      <c r="F26" s="9">
-        <v>35347</v>
-      </c>
-      <c r="G26" s="2">
-        <v>70</v>
-      </c>
-      <c r="H26" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2">
-        <v>6</v>
-      </c>
-      <c r="C27" s="2">
-        <v>7</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2">
-        <v>20</v>
-      </c>
-      <c r="F27" s="9">
-        <v>35354</v>
-      </c>
-      <c r="G27" s="2">
-        <v>217</v>
-      </c>
-      <c r="H27" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2">
-        <v>7</v>
-      </c>
-      <c r="C28" s="2">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
-        <v>20</v>
-      </c>
-      <c r="F28" s="9">
-        <v>35335</v>
-      </c>
-      <c r="G28" s="2">
-        <v>55</v>
-      </c>
-      <c r="H28" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2">
-        <v>7</v>
-      </c>
-      <c r="C29" s="2">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2">
-        <v>20</v>
-      </c>
-      <c r="F29" s="9">
-        <v>35347</v>
-      </c>
-      <c r="G29" s="2">
-        <v>70</v>
-      </c>
-      <c r="H29" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2">
-        <v>7</v>
-      </c>
-      <c r="C30" s="2">
-        <v>7</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
-        <v>20</v>
-      </c>
-      <c r="F30" s="9">
-        <v>35354</v>
-      </c>
-      <c r="G30" s="2">
-        <v>217</v>
-      </c>
-      <c r="H30" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2">
-        <v>8</v>
-      </c>
-      <c r="C31" s="2">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2">
-        <v>20</v>
-      </c>
-      <c r="F31" s="9">
-        <v>35335</v>
-      </c>
-      <c r="G31" s="2">
-        <v>55</v>
-      </c>
-      <c r="H31" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2">
-        <v>8</v>
-      </c>
-      <c r="C32" s="2">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2">
-        <v>20</v>
-      </c>
-      <c r="F32" s="9">
-        <v>35347</v>
-      </c>
-      <c r="G32" s="2">
-        <v>70</v>
-      </c>
-      <c r="H32" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2">
-        <v>8</v>
-      </c>
-      <c r="C33" s="2">
-        <v>7</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>20</v>
-      </c>
-      <c r="F33" s="9">
-        <v>35354</v>
-      </c>
-      <c r="G33" s="2">
-        <v>217</v>
-      </c>
-      <c r="H33" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2">
-        <v>9</v>
-      </c>
-      <c r="C34" s="2">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2">
-        <v>20</v>
-      </c>
-      <c r="F34" s="9">
-        <v>35335</v>
-      </c>
-      <c r="G34" s="2">
-        <v>55</v>
-      </c>
-      <c r="H34" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2">
-        <v>10</v>
-      </c>
-      <c r="C35" s="2">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2">
-        <v>20</v>
-      </c>
-      <c r="F35" s="9">
-        <v>35335</v>
-      </c>
-      <c r="G35" s="2">
-        <v>55</v>
-      </c>
-      <c r="H35" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2">
-        <v>11</v>
-      </c>
-      <c r="C36" s="2">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2">
-        <v>20</v>
-      </c>
-      <c r="F36" s="9">
-        <v>35335</v>
-      </c>
-      <c r="G36" s="2">
-        <v>55</v>
-      </c>
-      <c r="H36" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2">
-        <v>12</v>
-      </c>
-      <c r="C37" s="2">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2">
-        <v>20</v>
-      </c>
-      <c r="F37" s="9">
-        <v>35335</v>
-      </c>
-      <c r="G37" s="2">
-        <v>55</v>
-      </c>
-      <c r="H37" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2">
-        <v>13</v>
-      </c>
-      <c r="C38" s="2">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2">
-        <v>20</v>
-      </c>
-      <c r="F38" s="9">
-        <v>35333</v>
-      </c>
-      <c r="G38" s="2">
-        <v>110</v>
-      </c>
-      <c r="H38" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2">
-        <v>13</v>
-      </c>
-      <c r="C39" s="2">
-        <v>7</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2">
-        <v>20</v>
-      </c>
-      <c r="F39" s="9">
-        <v>35355</v>
-      </c>
-      <c r="G39" s="2">
-        <v>217</v>
-      </c>
-      <c r="H39" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2">
-        <v>13</v>
-      </c>
-      <c r="C40" s="2">
-        <v>7</v>
-      </c>
-      <c r="D40" s="2">
-        <v>26</v>
-      </c>
-      <c r="E40" s="2">
-        <v>20</v>
-      </c>
-      <c r="F40" s="9">
-        <v>35375</v>
-      </c>
-      <c r="G40" s="2">
-        <v>130</v>
-      </c>
-      <c r="H40" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2">
-        <v>13</v>
-      </c>
-      <c r="C41" s="2">
-        <v>7</v>
-      </c>
-      <c r="D41" s="2">
-        <v>26</v>
-      </c>
-      <c r="E41" s="2">
-        <v>20</v>
-      </c>
-      <c r="F41" s="9">
-        <v>35409</v>
-      </c>
-      <c r="G41" s="2">
-        <v>130</v>
-      </c>
-      <c r="H41" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2">
-        <v>14</v>
-      </c>
-      <c r="C42" s="2">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2">
-        <v>20</v>
-      </c>
-      <c r="F42" s="9">
-        <v>35333</v>
-      </c>
-      <c r="G42" s="2">
-        <v>110</v>
-      </c>
-      <c r="H42" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2">
-        <v>14</v>
-      </c>
-      <c r="C43" s="2">
-        <v>7</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2">
-        <v>20</v>
-      </c>
-      <c r="F43" s="9">
-        <v>35355</v>
-      </c>
-      <c r="G43" s="2">
-        <v>217</v>
-      </c>
-      <c r="H43" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2">
-        <v>14</v>
-      </c>
-      <c r="C44" s="2">
-        <v>7</v>
-      </c>
-      <c r="D44" s="2">
-        <v>26</v>
-      </c>
-      <c r="E44" s="2">
-        <v>20</v>
-      </c>
-      <c r="F44" s="9">
-        <v>35375</v>
-      </c>
-      <c r="G44" s="2">
-        <v>130</v>
-      </c>
-      <c r="H44" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2">
-        <v>14</v>
-      </c>
-      <c r="C45" s="2">
-        <v>7</v>
-      </c>
-      <c r="D45" s="2">
-        <v>26</v>
-      </c>
-      <c r="E45" s="2">
-        <v>20</v>
-      </c>
-      <c r="F45" s="9">
-        <v>35409</v>
-      </c>
-      <c r="G45" s="2">
-        <v>130</v>
-      </c>
-      <c r="H45" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2">
-        <v>15</v>
-      </c>
-      <c r="C46" s="2">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2">
-        <v>20</v>
-      </c>
-      <c r="F46" s="9">
-        <v>35333</v>
-      </c>
-      <c r="G46" s="2">
-        <v>110</v>
-      </c>
-      <c r="H46" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2">
-        <v>15</v>
-      </c>
-      <c r="C47" s="2">
-        <v>7</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2">
-        <v>20</v>
-      </c>
-      <c r="F47" s="9">
-        <v>35355</v>
-      </c>
-      <c r="G47" s="2">
-        <v>217</v>
-      </c>
-      <c r="H47" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2">
-        <v>15</v>
-      </c>
-      <c r="C48" s="2">
-        <v>7</v>
-      </c>
-      <c r="D48" s="2">
-        <v>26</v>
-      </c>
-      <c r="E48" s="2">
-        <v>20</v>
-      </c>
-      <c r="F48" s="9">
-        <v>35375</v>
-      </c>
-      <c r="G48" s="2">
-        <v>130</v>
-      </c>
-      <c r="H48" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2">
-        <v>15</v>
-      </c>
-      <c r="C49" s="2">
-        <v>7</v>
-      </c>
-      <c r="D49" s="2">
-        <v>26</v>
-      </c>
-      <c r="E49" s="2">
-        <v>20</v>
-      </c>
-      <c r="F49" s="9">
-        <v>35409</v>
-      </c>
-      <c r="G49" s="2">
-        <v>130</v>
-      </c>
-      <c r="H49" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2">
-        <v>16</v>
-      </c>
-      <c r="C50" s="2">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2">
-        <v>20</v>
-      </c>
-      <c r="F50" s="9">
-        <v>35333</v>
-      </c>
-      <c r="G50" s="2">
-        <v>110</v>
-      </c>
-      <c r="H50" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2">
-        <v>16</v>
-      </c>
-      <c r="C51" s="2">
-        <v>7</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2">
-        <v>20</v>
-      </c>
-      <c r="F51" s="9">
-        <v>35355</v>
-      </c>
-      <c r="G51" s="2">
-        <v>217</v>
-      </c>
-      <c r="H51" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2">
-        <v>16</v>
-      </c>
-      <c r="C52" s="2">
-        <v>7</v>
-      </c>
-      <c r="D52" s="2">
-        <v>26</v>
-      </c>
-      <c r="E52" s="2">
-        <v>20</v>
-      </c>
-      <c r="F52" s="9">
-        <v>35375</v>
-      </c>
-      <c r="G52" s="2">
-        <v>130</v>
-      </c>
-      <c r="H52" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>52</v>
-      </c>
-      <c r="B53" s="2">
-        <v>16</v>
-      </c>
-      <c r="C53" s="2">
-        <v>7</v>
-      </c>
-      <c r="D53" s="2">
-        <v>26</v>
-      </c>
-      <c r="E53" s="2">
-        <v>20</v>
-      </c>
-      <c r="F53" s="9">
-        <v>35409</v>
-      </c>
-      <c r="G53" s="2">
-        <v>130</v>
-      </c>
-      <c r="H53" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>53</v>
-      </c>
-      <c r="B54" s="2">
-        <v>17</v>
-      </c>
-      <c r="C54" s="2">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2">
-        <v>20</v>
-      </c>
-      <c r="F54" s="9">
-        <v>35333</v>
-      </c>
-      <c r="G54" s="2">
-        <v>110</v>
-      </c>
-      <c r="H54" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>54</v>
-      </c>
-      <c r="B55" s="2">
-        <v>17</v>
-      </c>
-      <c r="C55" s="2">
-        <v>7</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="2">
-        <v>20</v>
-      </c>
-      <c r="F55" s="9">
-        <v>35355</v>
-      </c>
-      <c r="G55" s="2">
-        <v>217</v>
-      </c>
-      <c r="H55" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>55</v>
-      </c>
-      <c r="B56" s="2">
-        <v>18</v>
-      </c>
-      <c r="C56" s="2">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2">
-        <v>20</v>
-      </c>
-      <c r="F56" s="9">
-        <v>35333</v>
-      </c>
-      <c r="G56" s="2">
-        <v>110</v>
-      </c>
-      <c r="H56" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
-        <v>56</v>
-      </c>
-      <c r="B57" s="2">
-        <v>18</v>
-      </c>
-      <c r="C57" s="2">
-        <v>7</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="2">
-        <v>20</v>
-      </c>
-      <c r="F57" s="9">
-        <v>35355</v>
-      </c>
-      <c r="G57" s="2">
-        <v>217</v>
-      </c>
-      <c r="H57" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
-        <v>57</v>
-      </c>
-      <c r="B58" s="2">
-        <v>19</v>
-      </c>
-      <c r="C58" s="2">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="2">
-        <v>20</v>
-      </c>
-      <c r="F58" s="9">
-        <v>35333</v>
-      </c>
-      <c r="G58" s="2">
-        <v>110</v>
-      </c>
-      <c r="H58" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>58</v>
-      </c>
-      <c r="B59" s="2">
-        <v>19</v>
-      </c>
-      <c r="C59" s="2">
-        <v>7</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1</v>
-      </c>
-      <c r="E59" s="2">
-        <v>20</v>
-      </c>
-      <c r="F59" s="9">
-        <v>35355</v>
-      </c>
-      <c r="G59" s="2">
-        <v>217</v>
-      </c>
-      <c r="H59" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
-        <v>59</v>
-      </c>
-      <c r="B60" s="2">
-        <v>20</v>
-      </c>
-      <c r="C60" s="2">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1</v>
-      </c>
-      <c r="E60" s="2">
-        <v>20</v>
-      </c>
-      <c r="F60" s="9">
-        <v>35333</v>
-      </c>
-      <c r="G60" s="2">
-        <v>110</v>
-      </c>
-      <c r="H60" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>60</v>
-      </c>
-      <c r="B61" s="2">
-        <v>20</v>
-      </c>
-      <c r="C61" s="2">
-        <v>7</v>
-      </c>
-      <c r="D61" s="2">
-        <v>1</v>
-      </c>
-      <c r="E61" s="2">
-        <v>20</v>
-      </c>
-      <c r="F61" s="9">
-        <v>35355</v>
-      </c>
-      <c r="G61" s="2">
-        <v>217</v>
-      </c>
-      <c r="H61" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>61</v>
-      </c>
-      <c r="B62" s="2">
-        <v>21</v>
-      </c>
-      <c r="C62" s="2">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2">
-        <v>1</v>
-      </c>
-      <c r="E62" s="2">
-        <v>20</v>
-      </c>
-      <c r="F62" s="9">
-        <v>35333</v>
-      </c>
-      <c r="G62" s="2">
-        <v>110</v>
-      </c>
-      <c r="H62" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
-        <v>62</v>
-      </c>
-      <c r="B63" s="2">
-        <v>22</v>
-      </c>
-      <c r="C63" s="2">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2">
-        <v>1</v>
-      </c>
-      <c r="E63" s="2">
-        <v>20</v>
-      </c>
-      <c r="F63" s="9">
-        <v>35333</v>
-      </c>
-      <c r="G63" s="2">
-        <v>110</v>
-      </c>
-      <c r="H63" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>63</v>
-      </c>
-      <c r="B64" s="2">
-        <v>23</v>
-      </c>
-      <c r="C64" s="2">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2">
-        <v>1</v>
-      </c>
-      <c r="E64" s="2">
-        <v>20</v>
-      </c>
-      <c r="F64" s="9">
-        <v>35333</v>
-      </c>
-      <c r="G64" s="2">
-        <v>110</v>
-      </c>
-      <c r="H64" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
-        <v>64</v>
-      </c>
-      <c r="B65" s="2">
-        <v>24</v>
-      </c>
-      <c r="C65" s="2">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1</v>
-      </c>
-      <c r="E65" s="2">
-        <v>20</v>
-      </c>
-      <c r="F65" s="9">
-        <v>35333</v>
-      </c>
-      <c r="G65" s="2">
-        <v>110</v>
-      </c>
-      <c r="H65" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F66" s="9"/>
-    </row>
-    <row r="67" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F67" s="9"/>
-    </row>
-    <row r="68" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F68" s="9"/>
-    </row>
-    <row r="69" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F69" s="9"/>
-    </row>
-    <row r="70" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F70" s="9"/>
-    </row>
-    <row r="71" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F71" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/DataFiles/Demo_2_Experiments.xlsx
+++ b/DataFiles/Demo_2_Experiments.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Apsim\REMS\REMS2020\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqmstow1\Documents\GitHub\REMS2020\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ED77C0-FD09-4458-AB44-CBD068C97BC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37005" yWindow="3135" windowWidth="28215" windowHeight="12420" tabRatio="669" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37005" yWindow="3135" windowWidth="28215" windowHeight="12420" tabRatio="669" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Factors" sheetId="20" r:id="rId1"/>
@@ -218,7 +217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -445,13 +444,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Design" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal_ExperimentInfos" xfId="7" xr:uid="{23F9B8D0-1337-416F-812C-670F03C2CE96}"/>
-    <cellStyle name="Normal_Factors" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal_Irrigation" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal_Plots" xfId="6" xr:uid="{E53F5DAC-734B-4365-90A4-6CC1137A9658}"/>
-    <cellStyle name="Normal_Sheet2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal_Sites" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal_Design" xfId="4"/>
+    <cellStyle name="Normal_ExperimentInfos" xfId="7"/>
+    <cellStyle name="Normal_Factors" xfId="3"/>
+    <cellStyle name="Normal_Irrigation" xfId="5"/>
+    <cellStyle name="Normal_Plots" xfId="6"/>
+    <cellStyle name="Normal_Sheet2" xfId="1"/>
+    <cellStyle name="Normal_Sites" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -728,7 +727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -791,7 +790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2522,7 +2521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2605,7 +2604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2783,7 +2782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2918,7 +2917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3011,7 +3010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3230,7 +3229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -4216,7 +4215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5259,11 +5258,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B147167-1129-4539-A51B-327E0C86BF99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5271,8 +5270,8 @@
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
@@ -5315,7 +5314,7 @@
         <v>57</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>58</v>
@@ -5341,7 +5340,7 @@
         <v>60</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>58</v>
@@ -5362,7 +5361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/DataFiles/Demo_2_Experiments.xlsx
+++ b/DataFiles/Demo_2_Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Apsim\REMS\REMS2020\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ED77C0-FD09-4458-AB44-CBD068C97BC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B31FBB-8B40-4C51-B4D3-13661DAC02F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37005" yWindow="3135" windowWidth="28215" windowHeight="12420" tabRatio="669" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28380" yWindow="4290" windowWidth="28215" windowHeight="12420" tabRatio="669" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Factors" sheetId="20" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
   <si>
     <t>Notes</t>
   </si>
@@ -213,6 +213,42 @@
   </si>
   <si>
     <t>7/10/1996</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
   </si>
 </sst>
 </file>
@@ -3014,7 +3050,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3039,6 +3077,9 @@
       <c r="B2" s="2">
         <v>202</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -3047,6 +3088,9 @@
       <c r="B3" s="2">
         <v>202</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -3054,6 +3098,9 @@
       </c>
       <c r="B4" s="2">
         <v>202</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3063,6 +3110,9 @@
       <c r="B5" s="2">
         <v>202</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -3071,6 +3121,9 @@
       <c r="B6" s="2">
         <v>202</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -3079,6 +3132,9 @@
       <c r="B7" s="2">
         <v>202</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -3087,6 +3143,9 @@
       <c r="B8" s="2">
         <v>202</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -3095,6 +3154,9 @@
       <c r="B9" s="2">
         <v>202</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -3103,6 +3165,9 @@
       <c r="B10" s="2">
         <v>202</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -3111,6 +3176,9 @@
       <c r="B11" s="2">
         <v>202</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -3119,6 +3187,9 @@
       <c r="B12" s="2">
         <v>202</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -3127,6 +3198,9 @@
       <c r="B13" s="2">
         <v>202</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -3135,6 +3209,9 @@
       <c r="B14" s="2">
         <v>203</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -3143,6 +3220,9 @@
       <c r="B15" s="2">
         <v>203</v>
       </c>
+      <c r="C15" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -3151,77 +3231,107 @@
       <c r="B16" s="2">
         <v>203</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>203</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>203</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>203</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>203</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>203</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>203</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>203</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>203</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>203</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5262,7 +5372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B147167-1129-4539-A51B-327E0C86BF99}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/DataFiles/Demo_2_Experiments.xlsx
+++ b/DataFiles/Demo_2_Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Apsim\REMS\REMS2020\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B31FBB-8B40-4C51-B4D3-13661DAC02F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5D6C65-1050-4E10-B9E1-09B161B357D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28380" yWindow="4290" windowWidth="28215" windowHeight="12420" tabRatio="669" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37455" yWindow="3435" windowWidth="28215" windowHeight="12420" tabRatio="669" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Factors" sheetId="20" r:id="rId1"/>
@@ -3050,7 +3050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C25"/>
     </sheetView>
   </sheetViews>
@@ -5372,8 +5372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B147167-1129-4539-A51B-327E0C86BF99}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5425,7 +5425,7 @@
         <v>57</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>58</v>
@@ -5451,7 +5451,7 @@
         <v>60</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>58</v>
